--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Vlad2.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Vlad2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="21.6" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="14.4" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,32 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.14 10:02</t>
+          <t>2023.11.14 16:13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.06987</t>
+          <t>1.08348</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.14 10:22</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.07117</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0,78 USD</t>
+          <t>-10,33 USD</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.14 06:37</t>
+          <t>2023.11.14 15:24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.06944</t>
+          <t>1.08147</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.14 08:31</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.07047</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0,62 USD</t>
+          <t>-11,54 USD</t>
         </is>
       </c>
     </row>
@@ -582,32 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.13 14:25</t>
+          <t>2023.11.14 15:13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.06731</t>
+          <t>1.08154</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.13 16:02</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.06832</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>-11,50 USD</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.13 08:32</t>
+          <t>2023.11.23 09:06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.06935</t>
+          <t>1.09146</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.13 13:25</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.06794</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0,85 USD</t>
+          <t>-5,54 USD</t>
         </is>
       </c>
     </row>
@@ -671,27 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.13 10:41</t>
+          <t>2023.11.14 15:12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.06967</t>
+          <t>1.08181</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.13 13:25</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.06794</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1,04 USD</t>
+          <t>-11,33 USD</t>
         </is>
       </c>
     </row>
@@ -708,32 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.10 07:55</t>
+          <t>2023.11.23 09:05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.06668</t>
+          <t>1.09137</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.10 09:21</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0675</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,49 USD</t>
+          <t>-5,60 USD</t>
         </is>
       </c>
     </row>
@@ -750,32 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.10 08:10</t>
+          <t>2023.11.14 15:06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.06602</t>
+          <t>1.08056</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.10 09:21</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.06756</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,92 USD</t>
+          <t>-12,08 USD</t>
         </is>
       </c>
     </row>
@@ -792,32 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.09 11:53</t>
+          <t>2023.11.21 07:43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.06863</t>
+          <t>1.09526</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.09 14:38</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.06992</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0,77 USD</t>
+          <t>-3,26 USD</t>
         </is>
       </c>
     </row>
@@ -834,32 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.09 09:28</t>
+          <t>2023.11.14 14:42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.06955</t>
+          <t>1.07923</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.09 14:38</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.06995</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0,24 USD</t>
+          <t>-12,88 USD</t>
         </is>
       </c>
     </row>
@@ -876,32 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.08 07:20</t>
+          <t>2023.11.20 04:24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.06879</t>
+          <t>1.09191</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.08 15:48</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.06859</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-0,12 USD</t>
+          <t>-5,27 USD</t>
         </is>
       </c>
     </row>
@@ -918,32 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.08 08:13</t>
+          <t>2023.11.14 14:40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.06792</t>
+          <t>1.07892</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.08 15:48</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.06859</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,40 USD</t>
+          <t>-13,07 USD</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.08 10:06</t>
+          <t>2023.11.17 20:01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.06731</t>
+          <t>1.09002</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.08 15:48</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.06862</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,79 USD</t>
+          <t>-6,41 USD</t>
         </is>
       </c>
     </row>
@@ -1002,32 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.08 10:15</t>
+          <t>2023.11.14 14:40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.06648</t>
+          <t>1.07885</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.08 15:48</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.06864</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1,30 USD</t>
+          <t>-13,11 USD</t>
         </is>
       </c>
     </row>
@@ -1049,34 +1049,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.03 18:14</t>
+          <t>2023.11.17 17:08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.07368</t>
+          <t>1.08812</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.07 04:06</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.07116</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1,51 USD</t>
+          <t>-7,55 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1091,27 +1091,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.03 18:14</t>
+          <t>2023.11.17 17:08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.07369</t>
+          <t>1.08812</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.07 04:06</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.07116</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2,53 USD</t>
+          <t>-7,55 USD</t>
         </is>
       </c>
     </row>
@@ -1133,27 +1133,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.03 18:12</t>
+          <t>2023.11.16 16:33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.07386</t>
+          <t>1.08908</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.07 04:05</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.07112</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1,64 USD</t>
+          <t>-6,97 USD</t>
         </is>
       </c>
     </row>
@@ -1175,27 +1175,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.03 14:48</t>
+          <t>2023.11.15 00:07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.07183</t>
+          <t>1.08801</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.07 04:05</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.07113</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0,42 USD</t>
+          <t>-7,61 USD</t>
         </is>
       </c>
     </row>
@@ -1217,27 +1217,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.03 13:38</t>
+          <t>2023.11.14 21:55</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.06971</t>
+          <t>1.08772</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.07 04:05</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.07114</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-0,86 USD</t>
+          <t>-7,79 USD</t>
         </is>
       </c>
     </row>
@@ -1259,27 +1259,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.03 13:32</t>
+          <t>2023.11.14 21:54</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.06893</t>
+          <t>1.08771</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.07 04:05</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.07116</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-1,34 USD</t>
+          <t>-7,79 USD</t>
         </is>
       </c>
     </row>
@@ -1301,27 +1301,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.03 18:17</t>
+          <t>2023.11.14 21:54</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.07359</t>
+          <t>1.0877</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.07 04:05</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.07118</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1,45 USD</t>
+          <t>-7,80 USD</t>
         </is>
       </c>
     </row>
@@ -1343,27 +1343,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.06 08:44</t>
+          <t>2023.11.14 17:31</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.07415</t>
+          <t>1.08542</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.07 04:05</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.07119</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1,78 USD</t>
+          <t>-9,17 USD</t>
         </is>
       </c>
     </row>
@@ -1385,27 +1385,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.06 09:57</t>
+          <t>2023.11.14 16:13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.07497</t>
+          <t>1.08326</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.07 04:05</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.07119</t>
+          <t>1.1007</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2,27 USD</t>
+          <t>-10,46 USD</t>
         </is>
       </c>
     </row>
@@ -1427,34 +1427,34 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.03 09:26</t>
+          <t>2023.11.14 10:02</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.0625</t>
+          <t>1.06987</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.03 10:17</t>
+          <t>2023.11.14 10:22</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.06348</t>
+          <t>1.07117</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0,59 USD</t>
+          <t>0,78 USD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1469,34 +1469,34 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.02 22:18</t>
+          <t>2023.11.14 06:37</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.06216</t>
+          <t>1.06944</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.02 22:21</t>
+          <t>2023.11.14 08:31</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.06177</t>
+          <t>1.07047</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1506,39 +1506,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.02 22:18</t>
+          <t>2023.11.13 14:25</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.06178</t>
+          <t>1.06731</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.02 22:20</t>
+          <t>2023.11.13 16:02</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.06216</t>
+          <t>1.06832</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1548,39 +1548,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.02 22:06</t>
+          <t>2023.11.13 08:32</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.06235</t>
+          <t>1.06935</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.02 22:14</t>
+          <t>2023.11.13 13:25</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.06187</t>
+          <t>1.06794</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,85 USD</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1595,34 +1595,34 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.02 22:06</t>
+          <t>2023.11.13 10:41</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.06175</t>
+          <t>1.06967</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.02 22:14</t>
+          <t>2023.11.13 13:25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.06216</t>
+          <t>1.06794</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>1,04 USD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1637,34 +1637,34 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.02 22:00</t>
+          <t>2023.11.10 07:55</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.06269</t>
+          <t>1.06668</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.02 22:05</t>
+          <t>2023.11.10 09:21</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.06204</t>
+          <t>1.0675</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>0,49 USD</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1674,32 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.02 22:00</t>
+          <t>2023.11.10 08:10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.06172</t>
+          <t>1.06602</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.02 22:05</t>
+          <t>2023.11.10 09:21</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.06235</t>
+          <t>1.06756</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>0,92 USD</t>
         </is>
       </c>
     </row>
@@ -1716,32 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.02 02:18</t>
+          <t>2023.11.09 11:53</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.06009</t>
+          <t>1.06863</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.02 16:30</t>
+          <t>2023.11.09 14:38</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.06246</t>
+          <t>1.06992</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-1,42 USD</t>
+          <t>0,77 USD</t>
         </is>
       </c>
     </row>
@@ -1758,32 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.02 08:37</t>
+          <t>2023.11.09 09:28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.06078</t>
+          <t>1.06955</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.02 16:30</t>
+          <t>2023.11.09 14:38</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.06246</t>
+          <t>1.06995</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-1,01 USD</t>
+          <t>0,24 USD</t>
         </is>
       </c>
     </row>
@@ -1800,32 +1800,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.02 10:29</t>
+          <t>2023.11.08 07:20</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.06152</t>
+          <t>1.06879</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.02 16:30</t>
+          <t>2023.11.08 15:48</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.06246</t>
+          <t>1.06859</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-0,56 USD</t>
+          <t>-0,12 USD</t>
         </is>
       </c>
     </row>
@@ -1842,32 +1842,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.02 11:47</t>
+          <t>2023.11.08 08:13</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.06308</t>
+          <t>1.06792</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.02 16:30</t>
+          <t>2023.11.08 15:48</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.06243</t>
+          <t>1.06859</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0,39 USD</t>
+          <t>0,40 USD</t>
         </is>
       </c>
     </row>
@@ -1884,32 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.02 12:04</t>
+          <t>2023.11.08 10:06</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.06349</t>
+          <t>1.06731</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.02 16:30</t>
+          <t>2023.11.08 15:48</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.06238</t>
+          <t>1.06862</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0,67 USD</t>
+          <t>0,79 USD</t>
         </is>
       </c>
     </row>
@@ -1926,32 +1926,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.02 13:40</t>
+          <t>2023.11.08 10:15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.06514</t>
+          <t>1.06648</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.02 16:30</t>
+          <t>2023.11.08 15:48</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.06239</t>
+          <t>1.06864</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1,65 USD</t>
+          <t>1,30 USD</t>
         </is>
       </c>
     </row>
@@ -1973,34 +1973,34 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.02 13:44</t>
+          <t>2023.11.03 18:14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.06531</t>
+          <t>1.07368</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.02 16:30</t>
+          <t>2023.11.07 04:06</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.06238</t>
+          <t>1.07116</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1,76 USD</t>
+          <t>1,51 USD</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2015,27 +2015,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.02 13:56</t>
+          <t>2023.11.03 18:14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.06607</t>
+          <t>1.07369</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.02 16:30</t>
+          <t>2023.11.07 04:06</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.06234</t>
+          <t>1.07116</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2,24 USD</t>
+          <t>2,53 USD</t>
         </is>
       </c>
     </row>
@@ -2057,27 +2057,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.02 13:59</t>
+          <t>2023.11.03 18:12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.06621</t>
+          <t>1.07386</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.02 16:30</t>
+          <t>2023.11.07 04:05</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.06248</t>
+          <t>1.07112</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2,24 USD</t>
+          <t>1,64 USD</t>
         </is>
       </c>
     </row>
@@ -2094,39 +2094,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.01 12:24</t>
+          <t>2023.11.03 14:48</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.05452</t>
+          <t>1.07183</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.01 13:35</t>
+          <t>2023.11.07 04:05</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.05562</t>
+          <t>1.07113</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>0,42 USD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2136,39 +2136,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.10.31 22:08</t>
+          <t>2023.11.03 13:38</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.05787</t>
+          <t>1.06971</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.10.31 22:18</t>
+          <t>2023.11.07 04:05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.05741</t>
+          <t>1.07114</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>-0,86 USD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2183,34 +2183,34 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.10.31 22:08</t>
+          <t>2023.11.03 13:32</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.05726</t>
+          <t>1.06893</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.10.31 22:18</t>
+          <t>2023.11.07 04:05</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.05773</t>
+          <t>1.07116</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>-1,34 USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2220,39 +2220,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.10.31 22:01</t>
+          <t>2023.11.03 18:17</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.05787</t>
+          <t>1.07359</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.10.31 22:06</t>
+          <t>2023.11.07 04:05</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.05738</t>
+          <t>1.07118</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>1,45 USD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2267,27 +2267,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.10.31 22:01</t>
+          <t>2023.11.06 08:44</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.05713</t>
+          <t>1.07415</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.10.31 22:06</t>
+          <t>2023.11.07 04:05</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.0577</t>
+          <t>1.07119</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>1,78 USD</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2309,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.10.31 09:37</t>
+          <t>2023.11.06 09:57</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.06333</t>
+          <t>1.07497</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.10.31 13:39</t>
+          <t>2023.11.07 04:05</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.06317</t>
+          <t>1.07119</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>2,27 USD</t>
         </is>
       </c>
     </row>
@@ -2346,27 +2346,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.10.31 10:01</t>
+          <t>2023.11.03 09:26</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.06411</t>
+          <t>1.0625</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.10.31 13:39</t>
+          <t>2023.11.03 10:17</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.06312</t>
+          <t>1.06348</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2378,7 +2378,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2388,39 +2388,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.10.31 10:56</t>
+          <t>2023.11.02 22:18</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.06489</t>
+          <t>1.06216</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.10.31 13:39</t>
+          <t>2023.11.02 22:21</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.06316</t>
+          <t>1.06177</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1,04 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2430,39 +2430,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.10.31 04:09</t>
+          <t>2023.11.02 22:18</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.05974</t>
+          <t>1.06178</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.10.31 07:34</t>
+          <t>2023.11.02 22:20</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.06046</t>
+          <t>1.06216</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0,43 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2472,39 +2472,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.10.30 14:00</t>
+          <t>2023.11.02 22:06</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.06065</t>
+          <t>1.06235</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.10.30 14:19</t>
+          <t>2023.11.02 22:14</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.05997</t>
+          <t>1.06187</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0,41 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2514,39 +2514,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.10.30 09:30</t>
+          <t>2023.11.02 22:06</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.05492</t>
+          <t>1.06175</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.10.30 10:01</t>
+          <t>2023.11.02 22:14</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.05637</t>
+          <t>1.06216</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0,87 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2561,34 +2561,34 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.10.30 08:57</t>
+          <t>2023.11.02 22:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.05558</t>
+          <t>1.06269</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.10.30 10:01</t>
+          <t>2023.11.02 22:05</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.05637</t>
+          <t>1.06204</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0,47 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2598,39 +2598,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.10.29 23:56</t>
+          <t>2023.11.02 22:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.05625</t>
+          <t>1.06172</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.10.30 10:01</t>
+          <t>2023.11.02 22:05</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.05637</t>
+          <t>1.06235</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2640,39 +2640,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.10.29 22:10</t>
+          <t>2023.11.02 02:18</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.0572</t>
+          <t>1.06009</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.10.29 23:06</t>
+          <t>2023.11.02 16:30</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.05652</t>
+          <t>1.06246</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>-1,42 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2687,27 +2687,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.10.29 22:10</t>
+          <t>2023.11.02 08:37</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.0562</t>
+          <t>1.06078</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.10.29 23:06</t>
+          <t>2023.11.02 16:30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.05673</t>
+          <t>1.06246</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>-1,01 USD</t>
         </is>
       </c>
     </row>
@@ -2724,32 +2724,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.10.27 14:03</t>
+          <t>2023.11.02 10:29</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.05398</t>
+          <t>1.06152</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.10.27 14:48</t>
+          <t>2023.11.02 16:30</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.0547</t>
+          <t>1.06246</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0,43 USD</t>
+          <t>-0,56 USD</t>
         </is>
       </c>
     </row>
@@ -2766,39 +2766,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.10.27 08:50</t>
+          <t>2023.11.02 11:47</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.05576</t>
+          <t>1.06308</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.10.27 12:13</t>
+          <t>2023.11.02 16:30</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.05653</t>
+          <t>1.06243</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0,46 USD</t>
+          <t>0,39 USD</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2808,39 +2808,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.10.26 23:08</t>
+          <t>2023.11.02 12:04</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.05636</t>
+          <t>1.06349</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.10.26 23:36</t>
+          <t>2023.11.02 16:30</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.05607</t>
+          <t>1.06238</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,67 USD</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2855,34 +2855,34 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.10.26 23:08</t>
+          <t>2023.11.02 13:40</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.05558</t>
+          <t>1.06514</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.10.26 23:35</t>
+          <t>2023.11.02 16:30</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.05638</t>
+          <t>1.06239</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>1,65 USD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2892,39 +2892,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.10.26 23:06</t>
+          <t>2023.11.02 13:44</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.05646</t>
+          <t>1.06531</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.10.26 23:07</t>
+          <t>2023.11.02 16:30</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.05605</t>
+          <t>1.06238</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>1,76 USD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2939,34 +2939,34 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.10.26 23:06</t>
+          <t>2023.11.02 13:56</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.0556</t>
+          <t>1.06607</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.10.26 23:07</t>
+          <t>2023.11.02 16:30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.05641</t>
+          <t>1.06234</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>2,24 USD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2976,39 +2976,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.10.26 23:00</t>
+          <t>2023.11.02 13:59</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.05635</t>
+          <t>1.06621</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.10.26 23:02</t>
+          <t>2023.11.02 16:30</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.05609</t>
+          <t>1.06248</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>2,24 USD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3018,39 +3018,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.10.26 23:00</t>
+          <t>2023.11.01 12:24</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.05555</t>
+          <t>1.05452</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.10.26 23:02</t>
+          <t>2023.11.01 13:35</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.05635</t>
+          <t>1.05562</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3065,34 +3065,34 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.10.25 09:35</t>
+          <t>2023.10.31 22:08</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.05848</t>
+          <t>1.05787</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.10.25 16:41</t>
+          <t>2023.10.31 22:18</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.0589</t>
+          <t>1.05741</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3102,39 +3102,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.10.25 11:20</t>
+          <t>2023.10.31 22:08</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.05794</t>
+          <t>1.05726</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.10.25 16:41</t>
+          <t>2023.10.31 22:18</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.05883</t>
+          <t>1.05773</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0,13 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3144,39 +3144,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.10.24 05:44</t>
+          <t>2023.10.31 22:01</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.0682</t>
+          <t>1.05787</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.10.24 11:56</t>
+          <t>2023.10.31 22:06</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.06379</t>
+          <t>1.05738</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>4,41 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3191,34 +3191,34 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.10.23 18:57</t>
+          <t>2023.10.31 22:01</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.06628</t>
+          <t>1.05713</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.10.24 11:56</t>
+          <t>2023.10.31 22:06</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.06383</t>
+          <t>1.0577</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2,45 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3233,34 +3233,34 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.10.23 17:31</t>
+          <t>2023.10.31 09:37</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.06378</t>
+          <t>1.06333</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.10.24 11:56</t>
+          <t>2023.10.31 13:39</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.06382</t>
+          <t>1.06317</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-0,04 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3275,34 +3275,34 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.10.23 16:56</t>
+          <t>2023.10.31 10:01</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.06262</t>
+          <t>1.06411</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.10.24 11:56</t>
+          <t>2023.10.31 13:39</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.0638</t>
+          <t>1.06312</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-1,18 USD</t>
+          <t>0,59 USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3317,34 +3317,34 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.10.23 16:45</t>
+          <t>2023.10.31 10:56</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.06187</t>
+          <t>1.06489</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.10.24 11:56</t>
+          <t>2023.10.31 13:39</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.0638</t>
+          <t>1.06316</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-1,93 USD</t>
+          <t>1,04 USD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3354,39 +3354,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.10.23 11:28</t>
+          <t>2023.10.31 04:09</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.06128</t>
+          <t>1.05974</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.10.23 11:47</t>
+          <t>2023.10.31 07:34</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.05978</t>
+          <t>1.06046</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1,50 USD</t>
+          <t>0,43 USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3396,39 +3396,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.10.23 05:00</t>
+          <t>2023.10.30 14:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.05764</t>
+          <t>1.06065</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.10.23 08:52</t>
+          <t>2023.10.30 14:19</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.05853</t>
+          <t>1.05997</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0,89 USD</t>
+          <t>0,41 USD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3443,34 +3443,34 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.10.22 23:00</t>
+          <t>2023.10.30 09:30</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.06029</t>
+          <t>1.05492</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.10.23 00:10</t>
+          <t>2023.10.30 10:01</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.05899</t>
+          <t>1.05637</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>0,87 USD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3480,39 +3480,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.10.22 23:01</t>
+          <t>2023.10.30 08:57</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.05936</t>
+          <t>1.05558</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.10.23 00:10</t>
+          <t>2023.10.30 10:01</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.05922</t>
+          <t>1.05637</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,47 USD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3527,34 +3527,34 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.10.20 08:01</t>
+          <t>2023.10.29 23:56</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.05767</t>
+          <t>1.05625</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.10.20 10:29</t>
+          <t>2023.10.30 10:01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.05862</t>
+          <t>1.05637</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0,95 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3569,27 +3569,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.10.20 08:19</t>
+          <t>2023.10.29 22:10</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.05684</t>
+          <t>1.0572</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.10.20 10:29</t>
+          <t>2023.10.29 23:06</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.05867</t>
+          <t>1.05652</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1,83 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
@@ -3606,27 +3606,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.10.19 23:00</t>
+          <t>2023.10.29 22:10</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.05875</t>
+          <t>1.0562</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.10.19 23:29</t>
+          <t>2023.10.29 23:06</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.05811</t>
+          <t>1.05673</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3638,7 +3638,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3648,39 +3648,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.10.19 23:00</t>
+          <t>2023.10.27 14:03</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.05786</t>
+          <t>1.05398</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.10.19 23:29</t>
+          <t>2023.10.27 14:48</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.05837</t>
+          <t>1.0547</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>0,43 USD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3690,32 +3690,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.10.18 23:00</t>
+          <t>2023.10.27 08:50</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.05328</t>
+          <t>1.05576</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.10.18 23:23</t>
+          <t>2023.10.27 12:13</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.05376</t>
+          <t>1.05653</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,46 USD</t>
         </is>
       </c>
     </row>
@@ -3737,22 +3737,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.10.18 23:00</t>
+          <t>2023.10.26 23:08</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.05376</t>
+          <t>1.05636</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.10.18 23:23</t>
+          <t>2023.10.26 23:36</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.05338</t>
+          <t>1.05607</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3764,7 +3764,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3774,39 +3774,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.10.18 16:42</t>
+          <t>2023.10.26 23:08</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.05356</t>
+          <t>1.05558</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.10.18 19:07</t>
+          <t>2023.10.26 23:35</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.05445</t>
+          <t>1.05638</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0,89 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3821,34 +3821,34 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.10.18 18:17</t>
+          <t>2023.10.26 23:06</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.05267</t>
+          <t>1.05646</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.10.18 19:07</t>
+          <t>2023.10.26 23:07</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.05442</t>
+          <t>1.05605</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1,75 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3858,39 +3858,39 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.10.18 14:02</t>
+          <t>2023.10.26 23:06</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.05634</t>
+          <t>1.0556</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.10.18 14:32</t>
+          <t>2023.10.26 23:07</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.05662</t>
+          <t>1.05641</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0,28 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3905,27 +3905,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.10.18 09:20</t>
+          <t>2023.10.26 23:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.05734</t>
+          <t>1.05635</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.10.18 11:04</t>
+          <t>2023.10.26 23:02</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.05838</t>
+          <t>1.05609</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1,04 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
@@ -3947,34 +3947,34 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.10.17 23:03</t>
+          <t>2023.10.26 23:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.05742</t>
+          <t>1.05555</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.10.17 23:32</t>
+          <t>2023.10.26 23:02</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.05777</t>
+          <t>1.05635</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3989,34 +3989,34 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.10.17 23:02</t>
+          <t>2023.10.25 09:35</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.05785</t>
+          <t>1.05848</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.10.17 23:32</t>
+          <t>2023.10.25 16:41</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.05749</t>
+          <t>1.0589</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4031,27 +4031,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.10.17 08:33</t>
+          <t>2023.10.25 11:20</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.05395</t>
+          <t>1.05794</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.10.17 09:43</t>
+          <t>2023.10.25 16:41</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.05522</t>
+          <t>1.05883</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1,27 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -4068,39 +4068,39 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.10.17 07:45</t>
+          <t>2023.10.24 05:44</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.05464</t>
+          <t>1.0682</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.10.17 09:43</t>
+          <t>2023.10.24 11:56</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.05523</t>
+          <t>1.06379</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0,59 USD</t>
+          <t>4,41 USD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4110,32 +4110,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.10.12 15:20</t>
+          <t>2023.10.23 18:57</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.05729</t>
+          <t>1.06628</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.10.16 16:45</t>
+          <t>2023.10.24 11:56</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.05509</t>
+          <t>1.06383</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-6,60 USD</t>
+          <t>2,45 USD</t>
         </is>
       </c>
     </row>
@@ -4152,39 +4152,39 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.10.12 15:46</t>
+          <t>2023.10.23 17:31</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.05544</t>
+          <t>1.06378</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.10.16 16:45</t>
+          <t>2023.10.24 11:56</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.05509</t>
+          <t>1.06382</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-0,35 USD</t>
+          <t>-0,04 USD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4194,32 +4194,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.10.12 16:01</t>
+          <t>2023.10.23 16:56</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.05522</t>
+          <t>1.06262</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.10.16 16:45</t>
+          <t>2023.10.24 11:56</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.05509</t>
+          <t>1.0638</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-0,26 USD</t>
+          <t>-1,18 USD</t>
         </is>
       </c>
     </row>
@@ -4236,32 +4236,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.10.12 21:00</t>
+          <t>2023.10.23 16:45</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.05282</t>
+          <t>1.06187</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.10.16 16:45</t>
+          <t>2023.10.24 11:56</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.05508</t>
+          <t>1.0638</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2,26 USD</t>
+          <t>-1,93 USD</t>
         </is>
       </c>
     </row>
@@ -4278,32 +4278,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.10.13 00:05</t>
+          <t>2023.10.23 11:28</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.05314</t>
+          <t>1.06128</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.10.16 16:45</t>
+          <t>2023.10.23 11:47</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.05506</t>
+          <t>1.05978</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1,92 USD</t>
+          <t>1,50 USD</t>
         </is>
       </c>
     </row>
@@ -4325,34 +4325,34 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.10.13 00:05</t>
+          <t>2023.10.23 05:00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.05314</t>
+          <t>1.05764</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.10.16 16:45</t>
+          <t>2023.10.23 08:52</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.05506</t>
+          <t>1.05853</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1,92 USD</t>
+          <t>0,89 USD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4367,34 +4367,34 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.10.13 12:36</t>
+          <t>2023.10.22 23:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.05175</t>
+          <t>1.06029</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.10.16 16:45</t>
+          <t>2023.10.23 00:10</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.05509</t>
+          <t>1.05899</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3,34 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4404,32 +4404,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.10.13 17:54</t>
+          <t>2023.10.22 23:01</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.04987</t>
+          <t>1.05936</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.10.16 16:45</t>
+          <t>2023.10.23 00:10</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.05508</t>
+          <t>1.05922</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>5,21 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
@@ -4446,39 +4446,39 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.10.12 08:52</t>
+          <t>2023.10.20 08:01</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.06337</t>
+          <t>1.05767</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.10.12 11:55</t>
+          <t>2023.10.20 10:29</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.06181</t>
+          <t>1.05862</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1,56 USD</t>
+          <t>0,95 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4488,32 +4488,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.10.11 23:07</t>
+          <t>2023.10.20 08:19</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.06164</t>
+          <t>1.05684</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.10.12 00:02</t>
+          <t>2023.10.20 10:29</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.0621</t>
+          <t>1.05867</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>1,83 USD</t>
         </is>
       </c>
     </row>
@@ -4535,34 +4535,34 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.10.11 23:07</t>
+          <t>2023.10.19 23:00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.06221</t>
+          <t>1.05875</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.10.12 00:02</t>
+          <t>2023.10.19 23:29</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.06188</t>
+          <t>1.05811</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4577,34 +4577,34 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.10.11 11:46</t>
+          <t>2023.10.19 23:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.06075</t>
+          <t>1.05786</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.10.11 14:30</t>
+          <t>2023.10.19 23:29</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.05861</t>
+          <t>1.05837</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2,14 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4619,67 +4619,991 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.10.10 10:55</t>
+          <t>2023.10.18 23:00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.06069</t>
+          <t>1.05328</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.10.10 13:06</t>
+          <t>2023.10.18 23:23</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.05895</t>
+          <t>1.05376</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1,74 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023.10.18 23:00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1.05376</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2023.10.18 23:23</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1.05338</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>0,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>EURUSD</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023.10.18 16:42</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.05356</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2023.10.18 19:07</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1.05445</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>0,89 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023.10.18 18:17</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1.05267</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2023.10.18 19:07</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1.05442</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>1,75 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023.10.18 14:02</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1.05634</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2023.10.18 14:32</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1.05662</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>0,28 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.10.18 09:20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1.05734</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.10.18 11:04</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1.05838</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>1,04 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.10.17 23:03</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1.05742</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.10.17 23:32</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1.05777</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>0,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023.10.17 23:02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1.05785</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2023.10.17 23:32</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1.05749</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>0,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023.10.17 08:33</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1.05395</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2023.10.17 09:43</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1.05522</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>1,27 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023.10.17 07:45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1.05464</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2023.10.17 09:43</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1.05523</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0,59 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023.10.12 15:20</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1.05729</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2023.10.16 16:45</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1.05509</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>-6,60 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023.10.12 15:46</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1.05544</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2023.10.16 16:45</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1.05509</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>-0,35 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023.10.12 16:01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1.05522</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2023.10.16 16:45</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1.05509</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>-0,26 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023.10.12 21:00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1.05282</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2023.10.16 16:45</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1.05508</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2,26 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023.10.13 00:05</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1.05314</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2023.10.16 16:45</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1.05506</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>1,92 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023.10.13 00:05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1.05314</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2023.10.16 16:45</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1.05506</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>1,92 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023.10.13 12:36</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1.05175</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2023.10.16 16:45</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1.05509</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>3,34 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023.10.13 17:54</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1.04987</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2023.10.16 16:45</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1.05508</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>5,21 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023.10.12 08:52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1.06337</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2023.10.12 11:55</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1.06181</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>1,56 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023.10.11 23:07</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1.06164</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2023.10.12 00:02</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1.0621</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023.10.11 23:07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1.06221</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2023.10.12 00:02</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1.06188</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>0,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023.10.11 11:46</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1.06075</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2023.10.11 14:30</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1.05861</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2,14 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023.10.10 10:55</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1.06069</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2023.10.10 13:06</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>1.05895</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>1,74 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>2023.10.10 08:06</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1.05667</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>2023.10.10 09:57</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>1.05694</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>0,27 USD</t>
         </is>
